--- a/Test/05-26-17_B7A_yeast_td_fract5_rep1.xlsx
+++ b/Test/05-26-17_B7A_yeast_td_fract5_rep1.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -508,7 +508,7 @@
   <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -587,7 +587,7 @@
         <v>44.580977000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -601,7 +601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>6</v>
       </c>
@@ -615,7 +615,7 @@
         <v>6999.0086000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>7</v>
       </c>
@@ -629,7 +629,7 @@
         <v>6999.0082000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>8</v>
       </c>
@@ -643,7 +643,7 @@
         <v>6999.0092000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>9</v>
       </c>
@@ -657,7 +657,7 @@
         <v>6999.0099</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>10</v>
       </c>
@@ -671,7 +671,7 @@
         <v>6999.0092999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>11</v>
       </c>
@@ -685,7 +685,7 @@
         <v>6999.0084999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>12</v>
       </c>
@@ -699,7 +699,7 @@
         <v>6999.0096000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>13</v>
       </c>
@@ -713,7 +713,7 @@
         <v>6999.0110000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>14</v>
       </c>
@@ -727,7 +727,7 @@
         <v>6999.0097999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -762,7 +762,7 @@
         <v>44.373942</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -776,7 +776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>6</v>
       </c>
@@ -790,7 +790,7 @@
         <v>6999.0060000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>7</v>
       </c>
@@ -804,7 +804,7 @@
         <v>6999.0065999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>8</v>
       </c>
@@ -818,7 +818,7 @@
         <v>6999.0088999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>9</v>
       </c>
@@ -832,7 +832,7 @@
         <v>6999.0087999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>10</v>
       </c>
@@ -846,7 +846,7 @@
         <v>6999.0084999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>11</v>
       </c>
@@ -860,7 +860,7 @@
         <v>6999.009</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>12</v>
       </c>
@@ -874,7 +874,7 @@
         <v>6999.0097999999989</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>13</v>
       </c>
@@ -888,7 +888,7 @@
         <v>6999.0113000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>14</v>
       </c>
@@ -902,7 +902,7 @@
         <v>6999.0101000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -937,7 +937,7 @@
         <v>44.742062500000003</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -951,7 +951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>6</v>
       </c>
@@ -965,7 +965,7 @@
         <v>6999.0081</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>7</v>
       </c>
@@ -979,7 +979,7 @@
         <v>6999.0079999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>8</v>
       </c>
@@ -993,7 +993,7 @@
         <v>6999.0092000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>9</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>6999.0093999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>10</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>6999.0081</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>11</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>6999.0081</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>12</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>6999.0091999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>13</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>6999.0108</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>14</v>
       </c>
@@ -1077,12 +1077,12 @@
         <v>6999.0101999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
-      <c r="B35" s="3">
-        <v>6533.6971999999996</v>
+      <c r="B35">
+        <v>6533.6713346899996</v>
       </c>
       <c r="C35" s="1">
         <v>18619903.52</v>
@@ -1112,7 +1112,7 @@
         <v>44.151167999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>24</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>6</v>
       </c>
@@ -1134,13 +1134,14 @@
         <v>557549.78</v>
       </c>
       <c r="D37" s="3">
-        <v>1089.95552</v>
-      </c>
-      <c r="E37" s="3">
-        <v>6533.6772000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <f>(E37+B37*1.007276474)/B37</f>
+        <v>1089.9524989223332</v>
+      </c>
+      <c r="E37">
+        <v>6533.6713346899996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>7</v>
       </c>
@@ -1148,13 +1149,14 @@
         <v>2242570.1800000002</v>
       </c>
       <c r="D38" s="3">
-        <v>934.39148999999998</v>
-      </c>
-      <c r="E38" s="3">
-        <v>6533.6773999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D38:D44" si="0">(E38+B38*1.007276474)/B38</f>
+        <v>934.38889571542848</v>
+      </c>
+      <c r="E38">
+        <v>6533.6713346899996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>8</v>
       </c>
@@ -1162,13 +1164,14 @@
         <v>3510374.16</v>
       </c>
       <c r="D39" s="3">
-        <v>817.71846000000005</v>
-      </c>
-      <c r="E39" s="3">
-        <v>6533.6787000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>817.71619331024999</v>
+      </c>
+      <c r="E39">
+        <v>6533.6713346899996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>9</v>
       </c>
@@ -1176,13 +1179,14 @@
         <v>7316271.3399999999</v>
       </c>
       <c r="D40" s="3">
-        <v>726.97276999999997</v>
-      </c>
-      <c r="E40" s="3">
-        <v>6533.6773000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>726.97075810622221</v>
+      </c>
+      <c r="E40">
+        <v>6533.6713346899996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>10</v>
       </c>
@@ -1190,13 +1194,14 @@
         <v>21604149.390000001</v>
       </c>
       <c r="D41" s="3">
-        <v>654.37621999999999</v>
-      </c>
-      <c r="E41" s="3">
-        <v>6533.6783000000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>654.37440994299993</v>
+      </c>
+      <c r="E41">
+        <v>6533.6713346899996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>11</v>
       </c>
@@ -1204,13 +1209,14 @@
         <v>60692639.909999996</v>
       </c>
       <c r="D42" s="3">
-        <v>594.97905000000003</v>
-      </c>
-      <c r="E42" s="3">
-        <v>6533.6787000000004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>594.97739780945449</v>
+      </c>
+      <c r="E42">
+        <v>6533.6713346899996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>12</v>
       </c>
@@ -1218,13 +1224,14 @@
         <v>70344813.980000004</v>
       </c>
       <c r="D43" s="3">
-        <v>545.48140000000001</v>
-      </c>
-      <c r="E43" s="3">
-        <v>6533.6756999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>545.47988769816664</v>
+      </c>
+      <c r="E43">
+        <v>6533.6713346899996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>13</v>
       </c>
@@ -1232,10 +1239,11 @@
         <v>44393701.149999999</v>
       </c>
       <c r="D44" s="3">
-        <v>503.59877</v>
-      </c>
-      <c r="E44" s="3">
-        <v>6533.6755000000003</v>
+        <f t="shared" si="0"/>
+        <v>503.59737914246153</v>
+      </c>
+      <c r="E44">
+        <v>6533.6713346899996</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">

--- a/Test/05-26-17_B7A_yeast_td_fract5_rep1.xlsx
+++ b/Test/05-26-17_B7A_yeast_td_fract5_rep1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lschaffer2\Documents\GitClones\proteoform-suite-1\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lschaffer2\Documents\GitClones\ProteoformSuite\Test\bin\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1005" windowWidth="15000" windowHeight="10005"/>
+    <workbookView xWindow="1005" yWindow="1005" windowWidth="15000" windowHeight="10005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -501,14 +501,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D37:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1134,6 @@
         <v>557549.78</v>
       </c>
       <c r="D37" s="3">
-        <f>(E37+B37*1.007276474)/B37</f>
         <v>1089.9524989223332</v>
       </c>
       <c r="E37">
@@ -1149,7 +1148,6 @@
         <v>2242570.1800000002</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" ref="D38:D44" si="0">(E38+B38*1.007276474)/B38</f>
         <v>934.38889571542848</v>
       </c>
       <c r="E38">
@@ -1164,7 +1162,6 @@
         <v>3510374.16</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="0"/>
         <v>817.71619331024999</v>
       </c>
       <c r="E39">
@@ -1179,7 +1176,6 @@
         <v>7316271.3399999999</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="0"/>
         <v>726.97075810622221</v>
       </c>
       <c r="E40">
@@ -1194,7 +1190,6 @@
         <v>21604149.390000001</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="0"/>
         <v>654.37440994299993</v>
       </c>
       <c r="E41">
@@ -1209,7 +1204,6 @@
         <v>60692639.909999996</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="0"/>
         <v>594.97739780945449</v>
       </c>
       <c r="E42">
@@ -1224,7 +1218,6 @@
         <v>70344813.980000004</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="0"/>
         <v>545.47988769816664</v>
       </c>
       <c r="E43">
@@ -1239,14 +1232,13 @@
         <v>44393701.149999999</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="0"/>
         <v>503.59737914246153</v>
       </c>
       <c r="E44">
         <v>6533.6713346899996</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1281,7 +1273,7 @@
         <v>43.951819499999999</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>24</v>
       </c>
@@ -1295,7 +1287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>6</v>
       </c>
@@ -1309,7 +1301,7 @@
         <v>6533.6764000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>7</v>
       </c>
@@ -1323,7 +1315,7 @@
         <v>6533.6768000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>8</v>
       </c>
@@ -1337,7 +1329,7 @@
         <v>6533.678100000001</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>9</v>
       </c>
@@ -1351,7 +1343,7 @@
         <v>6533.6777000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>10</v>
       </c>
@@ -1365,7 +1357,7 @@
         <v>6533.6779999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>11</v>
       </c>
@@ -1379,7 +1371,7 @@
         <v>6533.6781000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>12</v>
       </c>
@@ -1393,7 +1385,7 @@
         <v>6533.6755999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>13</v>
       </c>
@@ -1407,7 +1399,7 @@
         <v>6533.6751999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -1442,7 +1434,7 @@
         <v>55.336617500000003</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>24</v>
       </c>
@@ -1456,7 +1448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>7</v>
       </c>
@@ -1470,7 +1462,7 @@
         <v>8690.0640000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>8</v>
       </c>
@@ -1484,7 +1476,7 @@
         <v>8690.0655999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>9</v>
       </c>
@@ -1498,7 +1490,7 @@
         <v>8690.0632000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>10</v>
       </c>
@@ -1512,7 +1504,7 @@
         <v>8690.0648000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>11</v>
       </c>
@@ -1526,7 +1518,7 @@
         <v>8690.0655999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>12</v>
       </c>
@@ -1540,7 +1532,7 @@
         <v>8690.0668999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>13</v>
       </c>
@@ -1554,7 +1546,7 @@
         <v>8690.0671999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>14</v>
       </c>
@@ -1568,7 +1560,7 @@
         <v>8690.0683000000008</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>15</v>
       </c>
@@ -1582,7 +1574,7 @@
         <v>8690.0643999999993</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>16</v>
       </c>
@@ -1596,7 +1588,7 @@
         <v>8690.0647000000008</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>17</v>
       </c>
@@ -1610,7 +1602,7 @@
         <v>8690.0640999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7</v>
       </c>
@@ -1645,7 +1637,7 @@
         <v>44.983423500000001</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>24</v>
       </c>
@@ -1659,7 +1651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>6</v>
       </c>
@@ -1673,7 +1665,7 @@
         <v>6999.0065999999988</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>7</v>
       </c>
@@ -1687,7 +1679,7 @@
         <v>6999.0087000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>8</v>
       </c>
@@ -1701,7 +1693,7 @@
         <v>6999.0093999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>9</v>
       </c>
@@ -1715,7 +1707,7 @@
         <v>6999.01</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>10</v>
       </c>
@@ -1729,7 +1721,7 @@
         <v>6999.0083999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>11</v>
       </c>
@@ -1743,7 +1735,7 @@
         <v>6999.0069999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>12</v>
       </c>
@@ -1757,7 +1749,7 @@
         <v>6999.009500000001</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>13</v>
       </c>
@@ -1771,7 +1763,7 @@
         <v>6999.0100000000011</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>14</v>
       </c>
@@ -1785,7 +1777,7 @@
         <v>6999.0118000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>8</v>
       </c>
@@ -1820,7 +1812,7 @@
         <v>55.162272000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>24</v>
       </c>
@@ -1834,7 +1826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>6</v>
       </c>
@@ -1848,7 +1840,7 @@
         <v>8551.5748999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>7</v>
       </c>
@@ -1862,7 +1854,7 @@
         <v>8551.5802999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>8</v>
       </c>
@@ -1876,7 +1868,7 @@
         <v>8551.5787999999993</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>9</v>
       </c>
@@ -1890,7 +1882,7 @@
         <v>8551.5805</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>10</v>
       </c>
@@ -1904,7 +1896,7 @@
         <v>8551.5807000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>11</v>
       </c>
@@ -1918,7 +1910,7 @@
         <v>8551.5831999999991</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>12</v>
       </c>
@@ -1932,7 +1924,7 @@
         <v>8551.5845000000008</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>13</v>
       </c>
@@ -1946,7 +1938,7 @@
         <v>8551.5848000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>14</v>
       </c>
@@ -1960,7 +1952,7 @@
         <v>8551.5897000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>9</v>
       </c>
@@ -1995,7 +1987,7 @@
         <v>55.162272000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>24</v>
       </c>
@@ -2009,7 +2001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>7</v>
       </c>
@@ -2023,7 +2015,7 @@
         <v>8690.0643999999993</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>8</v>
       </c>
@@ -2037,7 +2029,7 @@
         <v>8690.0648999999994</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>9</v>
       </c>
@@ -2051,7 +2043,7 @@
         <v>8690.0632999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>10</v>
       </c>
@@ -2065,7 +2057,7 @@
         <v>8690.0643999999993</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>11</v>
       </c>
@@ -2079,7 +2071,7 @@
         <v>8690.0647000000008</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>12</v>
       </c>
@@ -2093,7 +2085,7 @@
         <v>8690.0663999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>13</v>
       </c>
@@ -2107,7 +2099,7 @@
         <v>8690.0671999999995</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>14</v>
       </c>
@@ -2121,7 +2113,7 @@
         <v>8690.0691999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>15</v>
       </c>
@@ -2135,7 +2127,7 @@
         <v>8690.0645000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>16</v>
       </c>
@@ -2149,7 +2141,7 @@
         <v>8690.0645999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>17</v>
       </c>
@@ -2163,7 +2155,7 @@
         <v>8690.0625999999993</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10</v>
       </c>
@@ -2198,7 +2190,7 @@
         <v>43.705129499999998</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>24</v>
       </c>
@@ -2212,7 +2204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>6</v>
       </c>
@@ -2226,7 +2218,7 @@
         <v>6533.6759000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>7</v>
       </c>
@@ -2240,7 +2232,7 @@
         <v>6533.6764999999996</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>8</v>
       </c>
@@ -2254,7 +2246,7 @@
         <v>6533.6776</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>9</v>
       </c>
@@ -2268,7 +2260,7 @@
         <v>6533.6792999999989</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>10</v>
       </c>
@@ -2282,7 +2274,7 @@
         <v>6533.6787000000004</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>11</v>
       </c>
@@ -2296,7 +2288,7 @@
         <v>6533.6773000000003</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>12</v>
       </c>
@@ -2310,7 +2302,7 @@
         <v>6533.6868000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>13</v>
       </c>
